--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cxcl1-Xcr1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cxcl1-Xcr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.7570511270725</v>
+        <v>19.79062366666667</v>
       </c>
       <c r="H2">
-        <v>15.7570511270725</v>
+        <v>59.371871</v>
       </c>
       <c r="I2">
-        <v>0.0415585318927076</v>
+        <v>0.04690933339254189</v>
       </c>
       <c r="J2">
-        <v>0.0415585318927076</v>
+        <v>0.04982137012915518</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.450927639068405</v>
+        <v>0.01506066666666667</v>
       </c>
       <c r="N2">
-        <v>0.450927639068405</v>
+        <v>0.045182</v>
       </c>
       <c r="O2">
-        <v>0.4447460045878195</v>
+        <v>0.008628232818297613</v>
       </c>
       <c r="P2">
-        <v>0.4447460045878195</v>
+        <v>0.008628232818297613</v>
       </c>
       <c r="Q2">
-        <v>7.105289863410952</v>
+        <v>0.2980599861691111</v>
       </c>
       <c r="R2">
-        <v>7.105289863410952</v>
+        <v>2.682539875522</v>
       </c>
       <c r="S2">
-        <v>0.01848299101581717</v>
+        <v>0.0004047446498619941</v>
       </c>
       <c r="T2">
-        <v>0.01848299101581717</v>
+        <v>0.0004298703808009291</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.7570511270725</v>
+        <v>19.79062366666667</v>
       </c>
       <c r="H3">
-        <v>15.7570511270725</v>
+        <v>59.371871</v>
       </c>
       <c r="I3">
-        <v>0.0415585318927076</v>
+        <v>0.04690933339254189</v>
       </c>
       <c r="J3">
-        <v>0.0415585318927076</v>
+        <v>0.04982137012915518</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.562971607730483</v>
+        <v>1.034921333333333</v>
       </c>
       <c r="N3">
-        <v>0.562971607730483</v>
+        <v>3.104764</v>
       </c>
       <c r="O3">
-        <v>0.5552539954121805</v>
+        <v>0.592904843474591</v>
       </c>
       <c r="P3">
-        <v>0.5552539954121805</v>
+        <v>0.5929048434745909</v>
       </c>
       <c r="Q3">
-        <v>8.870772406099425</v>
+        <v>20.48173863260489</v>
       </c>
       <c r="R3">
-        <v>8.870772406099425</v>
+        <v>184.335647693444</v>
       </c>
       <c r="S3">
-        <v>0.02307554087689042</v>
+        <v>0.02781277097260246</v>
       </c>
       <c r="T3">
-        <v>0.02307554087689042</v>
+        <v>0.02953933165811641</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>226.300545938188</v>
+        <v>19.79062366666667</v>
       </c>
       <c r="H4">
-        <v>226.300545938188</v>
+        <v>59.371871</v>
       </c>
       <c r="I4">
-        <v>0.5968577736954153</v>
+        <v>0.04690933339254189</v>
       </c>
       <c r="J4">
-        <v>0.5968577736954153</v>
+        <v>0.04982137012915518</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.450927639068405</v>
+        <v>0.695528</v>
       </c>
       <c r="N4">
-        <v>0.450927639068405</v>
+        <v>2.086584</v>
       </c>
       <c r="O4">
-        <v>0.4447460045878195</v>
+        <v>0.3984669237071115</v>
       </c>
       <c r="P4">
-        <v>0.4447460045878195</v>
+        <v>0.3984669237071114</v>
       </c>
       <c r="Q4">
-        <v>102.0451708997983</v>
+        <v>13.76493289762933</v>
       </c>
       <c r="R4">
-        <v>102.0451708997983</v>
+        <v>123.884396078664</v>
       </c>
       <c r="S4">
-        <v>0.2654501101582169</v>
+        <v>0.01869181777007745</v>
       </c>
       <c r="T4">
-        <v>0.2654501101582169</v>
+        <v>0.01985216809023784</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>226.300545938188</v>
+        <v>260.6166636666667</v>
       </c>
       <c r="H5">
-        <v>226.300545938188</v>
+        <v>781.849991</v>
       </c>
       <c r="I5">
-        <v>0.5968577736954153</v>
+        <v>0.617734648968278</v>
       </c>
       <c r="J5">
-        <v>0.5968577736954153</v>
+        <v>0.6560823691590862</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.562971607730483</v>
+        <v>0.01506066666666667</v>
       </c>
       <c r="N5">
-        <v>0.562971607730483</v>
+        <v>0.045182</v>
       </c>
       <c r="O5">
-        <v>0.5552539954121805</v>
+        <v>0.008628232818297613</v>
       </c>
       <c r="P5">
-        <v>0.5552539954121805</v>
+        <v>0.008628232818297613</v>
       </c>
       <c r="Q5">
-        <v>127.4007821771077</v>
+        <v>3.925060699262445</v>
       </c>
       <c r="R5">
-        <v>127.4007821771077</v>
+        <v>35.325546293362</v>
       </c>
       <c r="S5">
-        <v>0.3314076635371984</v>
+        <v>0.005329958371227652</v>
       </c>
       <c r="T5">
-        <v>0.3314076635371984</v>
+        <v>0.005660831429084878</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,57 +782,57 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.9186625198306</v>
+        <v>260.6166636666667</v>
       </c>
       <c r="H6">
-        <v>16.9186625198306</v>
+        <v>781.849991</v>
       </c>
       <c r="I6">
-        <v>0.04462223104069907</v>
+        <v>0.617734648968278</v>
       </c>
       <c r="J6">
-        <v>0.04462223104069907</v>
+        <v>0.6560823691590862</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.450927639068405</v>
+        <v>1.034921333333333</v>
       </c>
       <c r="N6">
-        <v>0.450927639068405</v>
+        <v>3.104764</v>
       </c>
       <c r="O6">
-        <v>0.4447460045878195</v>
+        <v>0.592904843474591</v>
       </c>
       <c r="P6">
-        <v>0.4447460045878195</v>
+        <v>0.5929048434745909</v>
       </c>
       <c r="Q6">
-        <v>7.629092546262324</v>
+        <v>269.7177450507916</v>
       </c>
       <c r="R6">
-        <v>7.629092546262324</v>
+        <v>2427.459705457124</v>
       </c>
       <c r="S6">
-        <v>0.01984555897114549</v>
+        <v>0.3662578653553683</v>
       </c>
       <c r="T6">
-        <v>0.01984555897114549</v>
+        <v>0.3889944143927068</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,57 +844,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.9186625198306</v>
+        <v>260.6166636666667</v>
       </c>
       <c r="H7">
-        <v>16.9186625198306</v>
+        <v>781.849991</v>
       </c>
       <c r="I7">
-        <v>0.04462223104069907</v>
+        <v>0.617734648968278</v>
       </c>
       <c r="J7">
-        <v>0.04462223104069907</v>
+        <v>0.6560823691590862</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.562971607730483</v>
+        <v>0.695528</v>
       </c>
       <c r="N7">
-        <v>0.562971607730483</v>
+        <v>2.086584</v>
       </c>
       <c r="O7">
-        <v>0.5552539954121805</v>
+        <v>0.3984669237071115</v>
       </c>
       <c r="P7">
-        <v>0.5552539954121805</v>
+        <v>0.3984669237071114</v>
       </c>
       <c r="Q7">
-        <v>9.5247266394385</v>
+        <v>181.2661868467493</v>
       </c>
       <c r="R7">
-        <v>9.5247266394385</v>
+        <v>1631.395681620744</v>
       </c>
       <c r="S7">
-        <v>0.02477667206955358</v>
+        <v>0.2461468252416821</v>
       </c>
       <c r="T7">
-        <v>0.02477667206955358</v>
+        <v>0.2614271233372945</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>46.2392063455533</v>
+        <v>19.92354333333333</v>
       </c>
       <c r="H8">
-        <v>46.2392063455533</v>
+        <v>59.77063</v>
       </c>
       <c r="I8">
-        <v>0.121953880590231</v>
+        <v>0.04722439031359255</v>
       </c>
       <c r="J8">
-        <v>0.121953880590231</v>
+        <v>0.05015598514796319</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.450927639068405</v>
+        <v>0.01506066666666667</v>
       </c>
       <c r="N8">
-        <v>0.450927639068405</v>
+        <v>0.045182</v>
       </c>
       <c r="O8">
-        <v>0.4447460045878195</v>
+        <v>0.008628232818297613</v>
       </c>
       <c r="P8">
-        <v>0.4447460045878195</v>
+        <v>0.008628232818297613</v>
       </c>
       <c r="Q8">
-        <v>20.85053614979716</v>
+        <v>0.3000618449622222</v>
       </c>
       <c r="R8">
-        <v>20.85053614979716</v>
+        <v>2.70055660466</v>
       </c>
       <c r="S8">
-        <v>0.05423850113648526</v>
+        <v>0.0004074630343278351</v>
       </c>
       <c r="T8">
-        <v>0.05423850113648526</v>
+        <v>0.0004327575170877037</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>46.2392063455533</v>
+        <v>19.92354333333333</v>
       </c>
       <c r="H9">
-        <v>46.2392063455533</v>
+        <v>59.77063</v>
       </c>
       <c r="I9">
-        <v>0.121953880590231</v>
+        <v>0.04722439031359255</v>
       </c>
       <c r="J9">
-        <v>0.121953880590231</v>
+        <v>0.05015598514796319</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.562971607730483</v>
+        <v>1.034921333333333</v>
       </c>
       <c r="N9">
-        <v>0.562971607730483</v>
+        <v>3.104764</v>
       </c>
       <c r="O9">
-        <v>0.5552539954121805</v>
+        <v>0.592904843474591</v>
       </c>
       <c r="P9">
-        <v>0.5552539954121805</v>
+        <v>0.5929048434745909</v>
       </c>
       <c r="Q9">
-        <v>26.03136033653769</v>
+        <v>20.61930003125778</v>
       </c>
       <c r="R9">
-        <v>26.03136033653769</v>
+        <v>185.57370028132</v>
       </c>
       <c r="S9">
-        <v>0.06771537945374573</v>
+        <v>0.02799956974706358</v>
       </c>
       <c r="T9">
-        <v>0.06771537945374573</v>
+        <v>0.02973772652346702</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>73.9377526612144</v>
+        <v>19.92354333333333</v>
       </c>
       <c r="H10">
-        <v>73.9377526612144</v>
+        <v>59.77063</v>
       </c>
       <c r="I10">
-        <v>0.195007582780947</v>
+        <v>0.04722439031359255</v>
       </c>
       <c r="J10">
-        <v>0.195007582780947</v>
+        <v>0.05015598514796319</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.450927639068405</v>
+        <v>0.695528</v>
       </c>
       <c r="N10">
-        <v>0.450927639068405</v>
+        <v>2.086584</v>
       </c>
       <c r="O10">
-        <v>0.4447460045878195</v>
+        <v>0.3984669237071115</v>
       </c>
       <c r="P10">
-        <v>0.4447460045878195</v>
+        <v>0.3984669237071114</v>
       </c>
       <c r="Q10">
-        <v>33.34057624554509</v>
+        <v>13.85738224754667</v>
       </c>
       <c r="R10">
-        <v>33.34057624554509</v>
+        <v>124.71644022792</v>
       </c>
       <c r="S10">
-        <v>0.08672884330615464</v>
+        <v>0.01881735753220113</v>
       </c>
       <c r="T10">
-        <v>0.08672884330615464</v>
+        <v>0.01998550110740846</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>47.58211666666667</v>
+      </c>
+      <c r="H11">
+        <v>142.74635</v>
+      </c>
+      <c r="I11">
+        <v>0.1127829729792156</v>
+      </c>
+      <c r="J11">
+        <v>0.1197843123039854</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.01506066666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.045182</v>
+      </c>
+      <c r="O11">
+        <v>0.008628232818297613</v>
+      </c>
+      <c r="P11">
+        <v>0.008628232818297613</v>
+      </c>
+      <c r="Q11">
+        <v>0.7166183984111112</v>
+      </c>
+      <c r="R11">
+        <v>6.4495655857</v>
+      </c>
+      <c r="S11">
+        <v>0.0009731177488044409</v>
+      </c>
+      <c r="T11">
+        <v>0.001033526934538457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>73.9377526612144</v>
-      </c>
-      <c r="H11">
-        <v>73.9377526612144</v>
-      </c>
-      <c r="I11">
-        <v>0.195007582780947</v>
-      </c>
-      <c r="J11">
-        <v>0.195007582780947</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.562971607730483</v>
-      </c>
-      <c r="N11">
-        <v>0.562971607730483</v>
-      </c>
-      <c r="O11">
-        <v>0.5552539954121805</v>
-      </c>
-      <c r="P11">
-        <v>0.5552539954121805</v>
-      </c>
-      <c r="Q11">
-        <v>41.62485548766267</v>
-      </c>
-      <c r="R11">
-        <v>41.62485548766267</v>
-      </c>
-      <c r="S11">
-        <v>0.1082787394747923</v>
-      </c>
-      <c r="T11">
-        <v>0.1082787394747923</v>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>47.58211666666667</v>
+      </c>
+      <c r="H12">
+        <v>142.74635</v>
+      </c>
+      <c r="I12">
+        <v>0.1127829729792156</v>
+      </c>
+      <c r="J12">
+        <v>0.1197843123039854</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.034921333333333</v>
+      </c>
+      <c r="N12">
+        <v>3.104764</v>
+      </c>
+      <c r="O12">
+        <v>0.592904843474591</v>
+      </c>
+      <c r="P12">
+        <v>0.5929048434745909</v>
+      </c>
+      <c r="Q12">
+        <v>49.24374762348889</v>
+      </c>
+      <c r="R12">
+        <v>443.1937286114</v>
+      </c>
+      <c r="S12">
+        <v>0.06686957094084085</v>
+      </c>
+      <c r="T12">
+        <v>0.07102069893730595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>47.58211666666667</v>
+      </c>
+      <c r="H13">
+        <v>142.74635</v>
+      </c>
+      <c r="I13">
+        <v>0.1127829729792156</v>
+      </c>
+      <c r="J13">
+        <v>0.1197843123039854</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.695528</v>
+      </c>
+      <c r="N13">
+        <v>2.086584</v>
+      </c>
+      <c r="O13">
+        <v>0.3984669237071115</v>
+      </c>
+      <c r="P13">
+        <v>0.3984669237071114</v>
+      </c>
+      <c r="Q13">
+        <v>33.09469444093334</v>
+      </c>
+      <c r="R13">
+        <v>297.8522499684</v>
+      </c>
+      <c r="S13">
+        <v>0.04494028428957031</v>
+      </c>
+      <c r="T13">
+        <v>0.04773008643214094</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>73.97801200000001</v>
+      </c>
+      <c r="H14">
+        <v>147.956024</v>
+      </c>
+      <c r="I14">
+        <v>0.1753486543463721</v>
+      </c>
+      <c r="J14">
+        <v>0.1241559632598098</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.01506066666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.045182</v>
+      </c>
+      <c r="O14">
+        <v>0.008628232818297613</v>
+      </c>
+      <c r="P14">
+        <v>0.008628232818297613</v>
+      </c>
+      <c r="Q14">
+        <v>1.114158179394667</v>
+      </c>
+      <c r="R14">
+        <v>6.684949076368</v>
+      </c>
+      <c r="S14">
+        <v>0.001512949014075693</v>
+      </c>
+      <c r="T14">
+        <v>0.001071246556785644</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>73.97801200000001</v>
+      </c>
+      <c r="H15">
+        <v>147.956024</v>
+      </c>
+      <c r="I15">
+        <v>0.1753486543463721</v>
+      </c>
+      <c r="J15">
+        <v>0.1241559632598098</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.034921333333333</v>
+      </c>
+      <c r="N15">
+        <v>3.104764</v>
+      </c>
+      <c r="O15">
+        <v>0.592904843474591</v>
+      </c>
+      <c r="P15">
+        <v>0.5929048434745909</v>
+      </c>
+      <c r="Q15">
+        <v>76.56142281638934</v>
+      </c>
+      <c r="R15">
+        <v>459.368536898336</v>
+      </c>
+      <c r="S15">
+        <v>0.1039650664587159</v>
+      </c>
+      <c r="T15">
+        <v>0.07361267196299461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>73.97801200000001</v>
+      </c>
+      <c r="H16">
+        <v>147.956024</v>
+      </c>
+      <c r="I16">
+        <v>0.1753486543463721</v>
+      </c>
+      <c r="J16">
+        <v>0.1241559632598098</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.695528</v>
+      </c>
+      <c r="N16">
+        <v>2.086584</v>
+      </c>
+      <c r="O16">
+        <v>0.3984669237071115</v>
+      </c>
+      <c r="P16">
+        <v>0.3984669237071114</v>
+      </c>
+      <c r="Q16">
+        <v>51.453778730336</v>
+      </c>
+      <c r="R16">
+        <v>308.7226723820161</v>
+      </c>
+      <c r="S16">
+        <v>0.06987063887358053</v>
+      </c>
+      <c r="T16">
+        <v>0.04947204474002957</v>
       </c>
     </row>
   </sheetData>
